--- a/wearVillage/11기 공유문서.xlsx
+++ b/wearVillage/11기 공유문서.xlsx
@@ -669,7 +669,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -810,11 +810,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -938,7 +947,99 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -948,6 +1049,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -955,99 +1057,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1269,7 +1280,7 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1282,124 +1293,124 @@
     <col min="6" max="6" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="66"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="68" t="s">
+    <row r="1" spans="1:25" ht="12.75">
+      <c r="A1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="70" t="s">
+      <c r="D1" s="85"/>
+      <c r="E1" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="86" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
     </row>
     <row r="3" spans="1:25" ht="72">
-      <c r="A3" s="75">
-        <v>1</v>
-      </c>
-      <c r="B3" s="76" t="s">
+      <c r="A3" s="58">
+        <v>1</v>
+      </c>
+      <c r="B3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="78"/>
+      <c r="F3" s="61"/>
     </row>
     <row r="4" spans="1:25" ht="36">
-      <c r="A4" s="75">
+      <c r="A4" s="58">
         <v>2</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="62" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="48">
-      <c r="A5" s="75">
+      <c r="A5" s="58">
         <v>3</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="80" t="s">
+      <c r="E5" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="78" t="s">
+      <c r="F5" s="61" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="48">
-      <c r="A6" s="75">
+      <c r="A6" s="58">
         <v>4</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="80" t="s">
+      <c r="E6" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="78" t="s">
+      <c r="F6" s="61" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="57">
-      <c r="A7" s="82">
+      <c r="A7" s="65">
         <v>5</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="84" t="s">
+      <c r="E7" s="67" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1426,33 +1437,33 @@
       <c r="Y7" s="2"/>
     </row>
     <row r="8" spans="1:25" ht="96">
-      <c r="A8" s="86">
+      <c r="A8" s="69">
         <v>6</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="88" t="s">
+      <c r="E8" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="89"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -1463,35 +1474,35 @@
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="1:25" ht="72">
-      <c r="A9" s="86">
+      <c r="A9" s="69">
         <v>7</v>
       </c>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="91" t="s">
+      <c r="E9" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="78" t="s">
+      <c r="F9" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -1502,35 +1513,35 @@
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="1:25" ht="36">
-      <c r="A10" s="92">
+      <c r="A10" s="75">
         <v>8</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="96" t="s">
+      <c r="F10" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="98"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -2168,8 +2179,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18">
-      <c r="A1" s="58"/>
-      <c r="B1" s="59"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="20" t="s">
         <v>3</v>
       </c>
@@ -2178,10 +2189,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="21" t="s">
         <v>74</v>
       </c>
@@ -2190,10 +2201,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="89"/>
       <c r="C3" s="23" t="s">
         <v>77</v>
       </c>
@@ -2202,7 +2213,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.75">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="91" t="s">
         <v>79</v>
       </c>
       <c r="B4" s="24">
@@ -2216,7 +2227,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.75">
-      <c r="A5" s="62"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="24">
         <v>2</v>
       </c>
@@ -2228,7 +2239,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.75">
-      <c r="A6" s="62"/>
+      <c r="A6" s="92"/>
       <c r="B6" s="24">
         <v>3</v>
       </c>
@@ -2240,7 +2251,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75">
-      <c r="A7" s="62"/>
+      <c r="A7" s="92"/>
       <c r="B7" s="24">
         <v>4</v>
       </c>
@@ -2252,7 +2263,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75">
-      <c r="A8" s="62"/>
+      <c r="A8" s="92"/>
       <c r="B8" s="24">
         <v>5</v>
       </c>
@@ -2265,7 +2276,7 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="25.5">
-      <c r="A9" s="62"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="24">
         <v>6</v>
       </c>
@@ -2277,7 +2288,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.75">
-      <c r="A10" s="62"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="24">
         <v>7</v>
       </c>
@@ -2289,7 +2300,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="38.25">
-      <c r="A11" s="62"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="24">
         <v>8</v>
       </c>
@@ -2301,7 +2312,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75">
-      <c r="A12" s="62"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="24">
         <v>9</v>
       </c>
@@ -2313,7 +2324,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.75">
-      <c r="A13" s="57"/>
+      <c r="A13" s="93"/>
       <c r="B13" s="24">
         <v>10</v>
       </c>
@@ -2351,7 +2362,7 @@
     <col min="11" max="11" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" ht="12.75">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -2360,7 +2371,7 @@
       <c r="F1" s="31"/>
       <c r="R1" s="32"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" ht="12.75">
       <c r="A2" s="33"/>
       <c r="B2" s="33" t="s">
         <v>3</v>
@@ -2372,7 +2383,7 @@
       <c r="E2" s="33"/>
       <c r="R2" s="32"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" ht="15">
       <c r="A3" s="34"/>
       <c r="B3" s="35" t="s">
         <v>55</v>
@@ -2385,7 +2396,7 @@
       <c r="R3" s="36"/>
       <c r="S3" s="32"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" ht="12.75">
       <c r="A4" s="33"/>
       <c r="B4" s="37" t="s">
         <v>51</v>
@@ -2398,7 +2409,7 @@
       <c r="R4" s="36"/>
       <c r="S4" s="32"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" ht="12.75">
       <c r="A5" s="33"/>
       <c r="B5" s="37" t="s">
         <v>53</v>
@@ -2418,7 +2429,7 @@
       <c r="R5" s="32"/>
       <c r="S5" s="32"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" ht="12.75">
       <c r="A6" s="33"/>
       <c r="B6" s="10" t="s">
         <v>57</v>
@@ -2426,12 +2437,12 @@
       <c r="C6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="63" t="s">
+      <c r="G6" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
       <c r="M6" s="32"/>
@@ -2444,7 +2455,7 @@
       <c r="T6" s="32"/>
       <c r="U6" s="32"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" ht="12.75">
       <c r="A7" s="33"/>
       <c r="B7" s="10" t="s">
         <v>59</v>
@@ -2476,7 +2487,7 @@
       <c r="T7" s="32"/>
       <c r="U7" s="32"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" ht="12.75">
       <c r="A8" s="33"/>
       <c r="B8" s="39" t="s">
         <v>61</v>
@@ -2500,7 +2511,7 @@
       <c r="T8" s="32"/>
       <c r="U8" s="32"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" ht="12.75">
       <c r="A9" s="33"/>
       <c r="B9" s="10" t="s">
         <v>65</v>
@@ -2524,41 +2535,41 @@
       <c r="T9" s="32"/>
       <c r="U9" s="32"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" ht="12.75">
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="40"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" ht="15">
       <c r="A12" s="34"/>
       <c r="B12" s="41"/>
       <c r="C12" s="42"/>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="96" t="s">
         <v>103</v>
       </c>
       <c r="G12" s="44"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
       <c r="J12" s="44"/>
-      <c r="K12" s="65" t="s">
+      <c r="K12" s="96" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" ht="14.25">
       <c r="A13" s="33"/>
       <c r="B13" s="46"/>
       <c r="C13" s="47"/>
       <c r="D13" s="48"/>
       <c r="E13" s="47"/>
-      <c r="F13" s="64"/>
+      <c r="F13" s="95"/>
       <c r="G13" s="45"/>
       <c r="H13" s="41"/>
       <c r="I13" s="41"/>
       <c r="J13" s="45"/>
-      <c r="K13" s="64"/>
+      <c r="K13" s="95"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" customHeight="1">
       <c r="A14" s="34"/>
@@ -2574,7 +2585,7 @@
       <c r="E14" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="64"/>
+      <c r="F14" s="95"/>
       <c r="G14" s="49" t="s">
         <v>47</v>
       </c>
@@ -2587,9 +2598,9 @@
       <c r="J14" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="64"/>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="K14" s="95"/>
+    </row>
+    <row r="15" spans="1:21" ht="14.25">
       <c r="A15" s="33"/>
       <c r="B15" s="53"/>
       <c r="C15" s="45" t="s">
@@ -2601,7 +2612,7 @@
       <c r="E15" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="64"/>
+      <c r="F15" s="95"/>
       <c r="G15" s="49" t="s">
         <v>69</v>
       </c>
@@ -2612,9 +2623,9 @@
         <v>49</v>
       </c>
       <c r="J15" s="45"/>
-      <c r="K15" s="64"/>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="K15" s="95"/>
+    </row>
+    <row r="16" spans="1:21" ht="12.75">
       <c r="A16" s="33"/>
       <c r="D16" s="36"/>
       <c r="E16" s="36"/>
@@ -2625,7 +2636,7 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" ht="14.25">
       <c r="A17" s="33"/>
       <c r="B17" s="18"/>
       <c r="C17" s="54" t="s">
@@ -2641,14 +2652,14 @@
       </c>
       <c r="K17" s="36"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" ht="14.25">
       <c r="A18" s="33"/>
       <c r="B18" s="56"/>
       <c r="C18" s="54" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" ht="12.75">
       <c r="A19" s="33"/>
     </row>
   </sheetData>
